--- a/demo/py_outputs/villages/Nichlaul_Source_Map.xlsx
+++ b/demo/py_outputs/villages/Nichlaul_Source_Map.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L768"/>
+  <dimension ref="A1:M768"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,11 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Branch Distance</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -548,6 +553,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M2" t="n">
+        <v>29.7807967484993</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -602,6 +610,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M3" t="n">
+        <v>29.57622683247905</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -656,6 +667,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M4" t="n">
+        <v>28.37601121902205</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -710,6 +724,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M5" t="n">
+        <v>29.22077352908654</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -764,6 +781,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M6" t="n">
+        <v>28.97847696345847</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -818,6 +838,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M7" t="n">
+        <v>27.61088601401903</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -872,6 +895,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M8" t="n">
+        <v>26.25206427624522</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -926,6 +952,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M9" t="n">
+        <v>28.43625235095408</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -980,6 +1009,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M10" t="n">
+        <v>29.53536376876231</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1034,6 +1066,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M11" t="n">
+        <v>29.49648111992822</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1088,6 +1123,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M12" t="n">
+        <v>29.67515146627331</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1142,6 +1180,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M13" t="n">
+        <v>28.31478817682832</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1196,6 +1237,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M14" t="n">
+        <v>27.10089658657535</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1250,6 +1294,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M15" t="n">
+        <v>29.62341053437896</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1304,6 +1351,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M16" t="n">
+        <v>27.18567604104216</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1358,6 +1408,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M17" t="n">
+        <v>26.25105521426345</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1412,6 +1465,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M18" t="n">
+        <v>25.25977426167539</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1466,6 +1522,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M19" t="n">
+        <v>23.74203145112063</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1520,6 +1579,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M20" t="n">
+        <v>22.89846951727284</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1574,6 +1636,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M21" t="n">
+        <v>22.05658039970654</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1628,6 +1693,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M22" t="n">
+        <v>23.00609748836541</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1682,6 +1750,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M23" t="n">
+        <v>24.50947403762873</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1736,6 +1807,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M24" t="n">
+        <v>25.90324786792166</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1790,6 +1864,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M25" t="n">
+        <v>25.68324754142484</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1844,6 +1921,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M26" t="n">
+        <v>24.455988575554</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1898,6 +1978,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M27" t="n">
+        <v>22.98339435710824</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1952,6 +2035,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M28" t="n">
+        <v>27.62201171174871</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2006,6 +2092,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M29" t="n">
+        <v>25.73745354129818</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2060,6 +2149,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M30" t="n">
+        <v>24.56593188207418</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2114,6 +2206,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M31" t="n">
+        <v>23.69046136978817</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2168,6 +2263,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M32" t="n">
+        <v>24.83447755335969</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2222,6 +2320,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M33" t="n">
+        <v>26.45646024298336</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2276,6 +2377,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M34" t="n">
+        <v>27.73825787509803</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2330,6 +2434,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M35" t="n">
+        <v>26.12278422254968</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2384,6 +2491,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M36" t="n">
+        <v>27.64157170432017</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2438,6 +2548,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M37" t="n">
+        <v>25.05215598979199</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2492,6 +2605,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M38" t="n">
+        <v>24.47683483494193</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2546,6 +2662,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M39" t="n">
+        <v>23.57372188780065</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2600,6 +2719,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M40" t="n">
+        <v>23.43478594088509</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2654,6 +2776,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M41" t="n">
+        <v>21.68956164875355</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2708,6 +2833,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M42" t="n">
+        <v>20.62449764247231</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2762,6 +2890,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M43" t="n">
+        <v>21.3712480929109</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2816,6 +2947,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M44" t="n">
+        <v>22.84854896616573</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2870,6 +3004,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M45" t="n">
+        <v>22.55595969254718</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2924,6 +3061,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M46" t="n">
+        <v>20.81798193973444</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2978,6 +3118,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M47" t="n">
+        <v>21.26322312871438</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3032,6 +3175,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M48" t="n">
+        <v>21.7052679900507</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3086,6 +3232,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M49" t="n">
+        <v>20.73340077649624</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3140,6 +3289,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M50" t="n">
+        <v>19.55009961524215</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3194,6 +3346,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M51" t="n">
+        <v>18.37812645201315</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3248,6 +3403,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M52" t="n">
+        <v>19.52441073705523</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3302,6 +3460,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M53" t="n">
+        <v>17.51133564054074</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3356,6 +3517,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M54" t="n">
+        <v>20.69987502778983</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3410,6 +3574,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M55" t="n">
+        <v>18.79591506464186</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3464,6 +3631,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M56" t="n">
+        <v>18.70928436323502</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3518,6 +3688,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M57" t="n">
+        <v>19.80857367711389</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3572,6 +3745,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M58" t="n">
+        <v>18.44075905980333</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3626,6 +3802,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M59" t="n">
+        <v>17.03620609731733</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3680,6 +3859,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M60" t="n">
+        <v>16.52191497372822</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3734,6 +3916,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M61" t="n">
+        <v>15.66029236217469</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3788,6 +3973,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M62" t="n">
+        <v>17.20411321505964</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3842,6 +4030,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M63" t="n">
+        <v>16.32988734570207</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3896,6 +4087,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M64" t="n">
+        <v>15.24811204203298</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3950,6 +4144,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M65" t="n">
+        <v>14.44051694970337</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4004,6 +4201,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M66" t="n">
+        <v>14.4772013252988</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4058,6 +4258,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M67" t="n">
+        <v>17.72089362451444</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4112,6 +4315,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M68" t="n">
+        <v>16.52665289183766</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4166,6 +4372,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M69" t="n">
+        <v>15.86669911334962</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4220,6 +4429,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M70" t="n">
+        <v>14.26620747622341</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4274,6 +4486,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M71" t="n">
+        <v>13.40564909308292</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4328,6 +4543,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M72" t="n">
+        <v>15.02926206704917</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4382,6 +4600,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M73" t="n">
+        <v>14.46614793021201</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4436,6 +4657,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M74" t="n">
+        <v>15.56371710801791</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4490,6 +4714,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M75" t="n">
+        <v>16.86832452948901</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4544,6 +4771,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M76" t="n">
+        <v>13.98838207428972</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4595,8 +4825,11 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>12.12569896440238</v>
       </c>
     </row>
     <row r="78">
@@ -4652,6 +4885,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M78" t="n">
+        <v>12.85464582017598</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4706,6 +4942,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M79" t="n">
+        <v>11.55667448542367</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4760,6 +4999,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M80" t="n">
+        <v>29.08852524477249</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4814,6 +5056,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M81" t="n">
+        <v>28.44075059948867</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4868,6 +5113,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M82" t="n">
+        <v>28.10183501086064</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4922,6 +5170,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M83" t="n">
+        <v>27.27846121461774</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4976,6 +5227,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M84" t="n">
+        <v>26.98481076674663</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5030,6 +5284,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M85" t="n">
+        <v>27.65253080344586</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5084,6 +5341,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M86" t="n">
+        <v>26.11535769221275</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5138,6 +5398,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M87" t="n">
+        <v>25.8370899890222</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5192,6 +5455,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M88" t="n">
+        <v>23.88731659144923</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5246,6 +5512,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M89" t="n">
+        <v>23.14629833454935</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5300,6 +5569,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M90" t="n">
+        <v>21.79828257736274</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5354,6 +5626,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M91" t="n">
+        <v>22.92180671139882</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5408,6 +5683,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M92" t="n">
+        <v>24.54748726171675</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5462,6 +5740,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M93" t="n">
+        <v>28.51754196939194</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5516,6 +5797,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M94" t="n">
+        <v>26.47762792316532</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5570,6 +5854,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M95" t="n">
+        <v>25.9927623765357</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5624,6 +5911,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M96" t="n">
+        <v>26.93017462297032</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5678,6 +5968,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M97" t="n">
+        <v>29.0849989961679</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5732,6 +6025,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M98" t="n">
+        <v>28.65181850028357</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5786,6 +6082,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M99" t="n">
+        <v>27.13334602213198</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5840,6 +6139,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M100" t="n">
+        <v>25.77372781028903</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5894,6 +6196,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M101" t="n">
+        <v>24.25999110925052</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5948,6 +6253,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M102" t="n">
+        <v>24.45389019591454</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6002,6 +6310,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M103" t="n">
+        <v>22.76736168815648</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6056,6 +6367,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M104" t="n">
+        <v>23.61622121528164</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6110,6 +6424,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M105" t="n">
+        <v>27.24856615225515</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6164,6 +6481,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M106" t="n">
+        <v>26.59912708801028</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6218,6 +6538,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M107" t="n">
+        <v>25.47067676075654</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6272,6 +6595,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M108" t="n">
+        <v>22.05370000098682</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6326,6 +6652,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M109" t="n">
+        <v>29.32758703817389</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6380,6 +6709,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M110" t="n">
+        <v>29.63657236651412</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6434,6 +6766,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M111" t="n">
+        <v>28.65125567585743</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6488,6 +6823,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M112" t="n">
+        <v>28.39259032222663</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6542,6 +6880,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M113" t="n">
+        <v>28.7043816374944</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6596,6 +6937,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M114" t="n">
+        <v>27.39091072529901</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6650,6 +6994,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M115" t="n">
+        <v>27.48234408788034</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6704,6 +7051,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M116" t="n">
+        <v>29.8269970005877</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6758,6 +7108,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M117" t="n">
+        <v>29.28823861456413</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6812,6 +7165,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M118" t="n">
+        <v>28.58630717249579</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6866,6 +7222,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M119" t="n">
+        <v>29.25932651306733</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6920,6 +7279,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M120" t="n">
+        <v>12.64875642050032</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6974,6 +7336,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M121" t="n">
+        <v>12.09607675052976</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7028,6 +7393,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M122" t="n">
+        <v>11.09987091048017</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7082,6 +7450,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M123" t="n">
+        <v>10.80635939601133</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7136,6 +7507,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M124" t="n">
+        <v>11.58101626579243</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7190,6 +7564,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M125" t="n">
+        <v>12.65383075390238</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7244,6 +7621,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M126" t="n">
+        <v>13.06562384507797</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7298,6 +7678,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M127" t="n">
+        <v>10.92189328691583</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7352,6 +7735,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M128" t="n">
+        <v>10.76459091734426</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7406,6 +7792,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M129" t="n">
+        <v>10.44726051470728</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7460,6 +7849,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M130" t="n">
+        <v>9.975265711335409</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7514,6 +7906,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M131" t="n">
+        <v>9.175364742614159</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7568,6 +7963,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M132" t="n">
+        <v>8.718524019413492</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7622,6 +8020,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M133" t="n">
+        <v>9.868903892116338</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7676,6 +8077,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M134" t="n">
+        <v>9.486530908586394</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7730,6 +8134,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M135" t="n">
+        <v>8.639901463901992</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7781,8 +8188,11 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>11.55452701990965</v>
       </c>
     </row>
     <row r="137">
@@ -7838,6 +8248,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M137" t="n">
+        <v>10.71232643287074</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7892,6 +8305,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M138" t="n">
+        <v>9.710953323099879</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7946,6 +8362,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M139" t="n">
+        <v>9.563282816700072</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -7997,8 +8416,11 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>9.342763461983518</v>
       </c>
     </row>
     <row r="141">
@@ -8054,6 +8476,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M141" t="n">
+        <v>8.968987162179392</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8105,8 +8530,11 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>7.465748308558054</v>
       </c>
     </row>
     <row r="143">
@@ -8162,6 +8590,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M143" t="n">
+        <v>7.816213673175733</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8216,6 +8647,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M144" t="n">
+        <v>7.414104211150894</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8270,6 +8704,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M145" t="n">
+        <v>7.631803349334494</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8324,6 +8761,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M146" t="n">
+        <v>6.030927224863298</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8378,6 +8818,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M147" t="n">
+        <v>6.229506664759305</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -8432,6 +8875,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M148" t="n">
+        <v>6.663313644655839</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -8486,6 +8932,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M149" t="n">
+        <v>6.008139032873714</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -8540,6 +8989,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M150" t="n">
+        <v>5.506225779785333</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8594,6 +9046,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M151" t="n">
+        <v>4.971945686110228</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8648,6 +9103,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M152" t="n">
+        <v>4.996498294307549</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8702,6 +9160,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M153" t="n">
+        <v>4.001315979525233</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8756,6 +9217,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M154" t="n">
+        <v>10.45807845317872</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8810,6 +9274,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M155" t="n">
+        <v>10.22363001896491</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8864,6 +9331,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M156" t="n">
+        <v>9.935930460678836</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8918,6 +9388,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M157" t="n">
+        <v>10.28824610106673</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8972,6 +9445,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M158" t="n">
+        <v>9.957812326676997</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9026,6 +9502,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M159" t="n">
+        <v>9.199278863333012</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9080,6 +9559,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M160" t="n">
+        <v>8.586611512047599</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9134,6 +9616,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M161" t="n">
+        <v>8.633663412580244</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -9188,6 +9673,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M162" t="n">
+        <v>7.779333852966872</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -9242,6 +9730,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M163" t="n">
+        <v>7.603250619636338</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -9296,6 +9787,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M164" t="n">
+        <v>6.349904324417988</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -9350,6 +9844,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M165" t="n">
+        <v>6.532720051904903</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -9404,6 +9901,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M166" t="n">
+        <v>6.885174585783038</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -9458,6 +9958,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M167" t="n">
+        <v>7.495441692805302</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -9512,6 +10015,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M168" t="n">
+        <v>6.359491868642737</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -9566,6 +10072,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M169" t="n">
+        <v>6.211302616454449</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -9620,6 +10129,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M170" t="n">
+        <v>5.454201741813386</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -9674,6 +10186,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M171" t="n">
+        <v>4.909392363120593</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9728,6 +10243,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M172" t="n">
+        <v>5.381138767761799</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9782,6 +10300,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M173" t="n">
+        <v>3.659122497519776</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9836,6 +10357,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M174" t="n">
+        <v>3.523968870884158</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -9890,6 +10414,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M175" t="n">
+        <v>5.110959856673396</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9944,6 +10471,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M176" t="n">
+        <v>4.361326883552302</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9998,6 +10528,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M177" t="n">
+        <v>2.83030634987316</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -10052,6 +10585,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M178" t="n">
+        <v>1.921516700668467</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -10106,6 +10642,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M179" t="n">
+        <v>0.832928154443166</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -10160,6 +10699,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M180" t="n">
+        <v>1.504719281146001</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -10214,6 +10756,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M181" t="n">
+        <v>2.464469658739497</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -10268,6 +10813,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M182" t="n">
+        <v>3.831224149608309</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -10322,6 +10870,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M183" t="n">
+        <v>3.431789112197769</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -10376,6 +10927,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M184" t="n">
+        <v>2.550177225982576</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -10430,6 +10984,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M185" t="n">
+        <v>2.958194241875161</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -10484,6 +11041,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M186" t="n">
+        <v>4.953818887265343</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -10538,6 +11098,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M187" t="n">
+        <v>3.849229521089254</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -10592,6 +11155,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M188" t="n">
+        <v>4.591384239939967</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -10646,6 +11212,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M189" t="n">
+        <v>4.237184627414209</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -10700,6 +11269,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M190" t="n">
+        <v>3.465019914293965</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -10754,6 +11326,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M191" t="n">
+        <v>2.456612157370363</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -10808,6 +11383,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M192" t="n">
+        <v>2.825783946299056</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -10862,6 +11440,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M193" t="n">
+        <v>2.773335769825504</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -10916,6 +11497,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M194" t="n">
+        <v>3.952589667906423</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -10970,6 +11554,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M195" t="n">
+        <v>3.028930484573992</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -11024,6 +11611,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M196" t="n">
+        <v>2.752811988535169</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -11078,6 +11668,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M197" t="n">
+        <v>1.745072482051557</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -11132,6 +11725,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M198" t="n">
+        <v>1.330864958681141</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -11183,8 +11779,11 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>6.601431840376589</v>
       </c>
     </row>
     <row r="200">
@@ -11240,6 +11839,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M200" t="n">
+        <v>6.94132462247065</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -11291,8 +11893,11 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>9.029559010680654</v>
       </c>
     </row>
     <row r="202">
@@ -11348,6 +11953,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M202" t="n">
+        <v>10.14919503015146</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -11402,6 +12010,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M203" t="n">
+        <v>8.970338947538044</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -11456,6 +12067,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M204" t="n">
+        <v>8.054824622410457</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -11510,6 +12124,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M205" t="n">
+        <v>6.689867925706534</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -11564,6 +12181,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M206" t="n">
+        <v>6.000390406155226</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -11618,6 +12238,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M207" t="n">
+        <v>5.637343091756359</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -11672,6 +12295,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M208" t="n">
+        <v>5.510796181954878</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -11726,6 +12352,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M209" t="n">
+        <v>4.246163419452869</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -11780,6 +12409,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M210" t="n">
+        <v>4.677807006294186</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -11834,6 +12466,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M211" t="n">
+        <v>3.982008494277574</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -11888,6 +12523,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M212" t="n">
+        <v>4.044866683105989</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -11942,6 +12580,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M213" t="n">
+        <v>5.123936936924927</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -11996,6 +12637,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M214" t="n">
+        <v>6.722199621349877</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -12050,6 +12694,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M215" t="n">
+        <v>8.546744949195608</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -12104,6 +12751,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M216" t="n">
+        <v>9.898241772155691</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -12158,6 +12808,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M217" t="n">
+        <v>11.20546153158478</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -12212,6 +12865,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M218" t="n">
+        <v>11.5492440740319</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -12263,8 +12919,11 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>9.913966315667372</v>
       </c>
     </row>
     <row r="220">
@@ -12320,6 +12979,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M220" t="n">
+        <v>9.022485424651038</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -12374,6 +13036,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M221" t="n">
+        <v>11.93708956484523</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -12428,6 +13093,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M222" t="n">
+        <v>5.709692021037626</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -12482,6 +13150,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M223" t="n">
+        <v>7.265888578140581</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -12536,6 +13207,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M224" t="n">
+        <v>8.955259930310069</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -12590,6 +13264,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M225" t="n">
+        <v>7.885247246506738</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -12644,6 +13321,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M226" t="n">
+        <v>12.5870572934764</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -12698,6 +13378,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M227" t="n">
+        <v>16.02392794583005</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -12752,6 +13435,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M228" t="n">
+        <v>17.95047458166104</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -12806,6 +13492,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M229" t="n">
+        <v>19.31859662397407</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -12860,6 +13549,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M230" t="n">
+        <v>18.42777018125247</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -12914,6 +13606,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M231" t="n">
+        <v>17.09267179223307</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -12968,6 +13663,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M232" t="n">
+        <v>15.35095761106622</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -13022,6 +13720,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M233" t="n">
+        <v>13.68564849258959</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -13076,6 +13777,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M234" t="n">
+        <v>10.68239964119792</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -13130,6 +13834,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M235" t="n">
+        <v>9.322725504908538</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -13184,6 +13891,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M236" t="n">
+        <v>9.600190740940464</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -13238,6 +13948,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M237" t="n">
+        <v>8.341098008749235</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -13292,6 +14005,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M238" t="n">
+        <v>6.86174275116206</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -13346,6 +14062,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M239" t="n">
+        <v>4.339860788577337</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -13400,6 +14119,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M240" t="n">
+        <v>4.008360001840952</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -13454,6 +14176,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M241" t="n">
+        <v>4.20925374677585</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -13508,6 +14233,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M242" t="n">
+        <v>5.097547406866494</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -13562,6 +14290,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M243" t="n">
+        <v>7.336777797395424</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -13616,6 +14347,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M244" t="n">
+        <v>8.434701914293209</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -13670,6 +14404,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M245" t="n">
+        <v>8.191821681510669</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -13724,6 +14461,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M246" t="n">
+        <v>8.693991810643395</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -13778,6 +14518,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M247" t="n">
+        <v>12.0638143736505</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -13832,6 +14575,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M248" t="n">
+        <v>4.219296721477849</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -13886,6 +14632,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M249" t="n">
+        <v>4.105936997926455</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -13940,6 +14689,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M250" t="n">
+        <v>5.160774835450513</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -13994,6 +14746,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M251" t="n">
+        <v>5.473920831205372</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -14048,6 +14803,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M252" t="n">
+        <v>5.380827465713309</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -14102,6 +14860,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M253" t="n">
+        <v>5.717944171425627</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -14156,6 +14917,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M254" t="n">
+        <v>6.576870021012581</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -14210,6 +14974,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M255" t="n">
+        <v>7.484321953483839</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -14264,6 +15031,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M256" t="n">
+        <v>8.093300027573919</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -14318,6 +15088,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M257" t="n">
+        <v>7.024757694746221</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -14372,6 +15145,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M258" t="n">
+        <v>6.739164082391178</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -14426,6 +15202,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M259" t="n">
+        <v>6.425661415058309</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -14480,6 +15259,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M260" t="n">
+        <v>8.067770618452814</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -14534,6 +15316,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M261" t="n">
+        <v>7.468720459368812</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -14588,6 +15373,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M262" t="n">
+        <v>5.126499641243917</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -14642,6 +15430,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M263" t="n">
+        <v>6.248746499286664</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -14696,6 +15487,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M264" t="n">
+        <v>7.132203462720843</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -14750,6 +15544,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M265" t="n">
+        <v>7.904374072454257</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -14804,6 +15601,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M266" t="n">
+        <v>7.866370629967069</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -14858,6 +15658,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M267" t="n">
+        <v>8.636371696075425</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -14912,6 +15715,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M268" t="n">
+        <v>8.912715906794535</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -14966,6 +15772,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M269" t="n">
+        <v>9.505542117527892</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -15020,6 +15829,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M270" t="n">
+        <v>9.838723130850411</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -15074,6 +15886,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M271" t="n">
+        <v>8.76143440752706</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -15128,6 +15943,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M272" t="n">
+        <v>9.399288889417432</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -15182,6 +16000,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M273" t="n">
+        <v>9.789475696764065</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -15236,6 +16057,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M274" t="n">
+        <v>10.07460093871335</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -15290,6 +16114,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M275" t="n">
+        <v>10.90263865860264</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -15344,6 +16171,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M276" t="n">
+        <v>11.37106720909768</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -15398,6 +16228,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M277" t="n">
+        <v>10.99606180664523</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -15452,6 +16285,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M278" t="n">
+        <v>10.40378755460396</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -15506,6 +16342,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M279" t="n">
+        <v>9.816665602971597</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -15560,6 +16399,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M280" t="n">
+        <v>8.784461381950925</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -15614,6 +16456,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M281" t="n">
+        <v>8.923409476779728</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -15668,6 +16513,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M282" t="n">
+        <v>10.32881856399725</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -15722,6 +16570,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M283" t="n">
+        <v>10.71811649338934</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -15776,6 +16627,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M284" t="n">
+        <v>10.94770329206271</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -15827,8 +16681,11 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M285" t="n">
+        <v>11.8069714934022</v>
       </c>
     </row>
     <row r="286">
@@ -15884,6 +16741,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M286" t="n">
+        <v>11.42379765817171</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -15938,6 +16798,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M287" t="n">
+        <v>11.97067158823733</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -15992,6 +16855,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M288" t="n">
+        <v>10.49437332551206</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -16046,6 +16912,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M289" t="n">
+        <v>13.32829474083785</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -16100,6 +16969,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M290" t="n">
+        <v>13.24940045634022</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -16154,6 +17026,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M291" t="n">
+        <v>12.65443354116253</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -16208,6 +17083,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M292" t="n">
+        <v>12.01089109445023</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -16262,6 +17140,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M293" t="n">
+        <v>12.87568462290114</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -16316,6 +17197,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M294" t="n">
+        <v>13.92548656187351</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -16370,6 +17254,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M295" t="n">
+        <v>13.15329379671952</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -16424,6 +17311,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M296" t="n">
+        <v>12.46277368066274</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -16478,6 +17368,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M297" t="n">
+        <v>12.68839410013699</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -16532,6 +17425,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M298" t="n">
+        <v>12.84008801471075</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -16586,6 +17482,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M299" t="n">
+        <v>13.13826938198732</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -16640,6 +17539,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M300" t="n">
+        <v>13.52814638125487</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -16694,6 +17596,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M301" t="n">
+        <v>14.43115945526566</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -16748,6 +17653,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M302" t="n">
+        <v>15.10288810139403</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -16802,6 +17710,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M303" t="n">
+        <v>7.517501701634663</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -16856,6 +17767,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M304" t="n">
+        <v>7.997446866959919</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -16910,6 +17824,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M305" t="n">
+        <v>6.578634149021379</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -16964,6 +17881,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M306" t="n">
+        <v>5.31326897652623</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -17018,6 +17938,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M307" t="n">
+        <v>5.884065949205771</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -17069,8 +17992,11 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M308" t="n">
+        <v>7.717284118719721</v>
       </c>
     </row>
     <row r="309">
@@ -17126,6 +18052,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M309" t="n">
+        <v>9.697682549362192</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -17180,6 +18109,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M310" t="n">
+        <v>10.67648222656604</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -17234,6 +18166,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M311" t="n">
+        <v>9.718833527300157</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -17288,6 +18223,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M312" t="n">
+        <v>8.712041595484633</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -17339,8 +18277,11 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M313" t="n">
+        <v>7.723130345002519</v>
       </c>
     </row>
     <row r="314">
@@ -17396,6 +18337,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M314" t="n">
+        <v>6.928581455037368</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -17450,6 +18394,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M315" t="n">
+        <v>6.43419782907197</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -17504,6 +18451,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M316" t="n">
+        <v>6.021997669650771</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -17558,6 +18508,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M317" t="n">
+        <v>4.6704307949449</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -17612,6 +18565,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M318" t="n">
+        <v>3.368709651426153</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -17666,6 +18622,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M319" t="n">
+        <v>5.08194995160961</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -17720,6 +18679,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M320" t="n">
+        <v>6.206323632721243</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -17774,6 +18736,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M321" t="n">
+        <v>7.291207223866961</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -17828,6 +18793,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M322" t="n">
+        <v>7.244572633913586</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -17882,6 +18850,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M323" t="n">
+        <v>8.656157304548953</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -17936,6 +18907,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M324" t="n">
+        <v>8.844608346032313</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -17990,6 +18964,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M325" t="n">
+        <v>10.45440822159199</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -18044,6 +19021,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M326" t="n">
+        <v>9.792729577556976</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -18098,6 +19078,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M327" t="n">
+        <v>8.480035925690489</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -18152,6 +19135,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M328" t="n">
+        <v>10.39499577182797</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -18206,6 +19192,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M329" t="n">
+        <v>10.90213276144832</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -18260,6 +19249,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M330" t="n">
+        <v>9.309917591436857</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -18311,8 +19303,11 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M331" t="n">
+        <v>9.887934644548958</v>
       </c>
     </row>
     <row r="332">
@@ -18368,6 +19363,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M332" t="n">
+        <v>9.509925497863071</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -18422,6 +19420,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M333" t="n">
+        <v>8.774341205275155</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -18473,8 +19474,11 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M334" t="n">
+        <v>7.721815576223611</v>
       </c>
     </row>
     <row r="335">
@@ -18530,6 +19534,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M335" t="n">
+        <v>8.340779910072273</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -18584,6 +19591,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M336" t="n">
+        <v>8.979605068028189</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -18638,6 +19648,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M337" t="n">
+        <v>9.894332862457992</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -18692,6 +19705,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M338" t="n">
+        <v>11.12325331900881</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -18746,6 +19762,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M339" t="n">
+        <v>9.973856993114779</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -18800,6 +19819,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M340" t="n">
+        <v>10.87972622685943</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -18854,6 +19876,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M341" t="n">
+        <v>11.50761320981132</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -18908,6 +19933,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M342" t="n">
+        <v>11.09287926878401</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -18962,6 +19990,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M343" t="n">
+        <v>10.87444942932639</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -19016,6 +20047,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M344" t="n">
+        <v>11.4926077043739</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -19070,6 +20104,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M345" t="n">
+        <v>12.37741266805079</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -19124,6 +20161,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M346" t="n">
+        <v>13.41375744356756</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -19178,6 +20218,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M347" t="n">
+        <v>12.74108334071533</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -19232,6 +20275,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M348" t="n">
+        <v>12.04345673413708</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -19286,6 +20332,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M349" t="n">
+        <v>11.68283834246879</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -19340,6 +20389,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M350" t="n">
+        <v>12.64836162047933</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -19394,6 +20446,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M351" t="n">
+        <v>11.15529412775087</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -19448,6 +20503,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M352" t="n">
+        <v>9.579162998880422</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -19502,6 +20560,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M353" t="n">
+        <v>9.188937146689247</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -19556,6 +20617,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M354" t="n">
+        <v>9.292337942026075</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -19610,6 +20674,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M355" t="n">
+        <v>10.08406087041022</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -19664,6 +20731,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M356" t="n">
+        <v>10.73023900982645</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -19718,6 +20788,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M357" t="n">
+        <v>11.24680278256388</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -19772,6 +20845,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M358" t="n">
+        <v>12.11683778546889</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -19826,6 +20902,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M359" t="n">
+        <v>12.87391426086746</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -19880,6 +20959,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M360" t="n">
+        <v>14.19363259718238</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -19934,6 +21016,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M361" t="n">
+        <v>12.32968568307577</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -19988,6 +21073,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M362" t="n">
+        <v>11.83097796110974</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -20042,6 +21130,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M363" t="n">
+        <v>11.09630910882487</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -20096,6 +21187,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M364" t="n">
+        <v>10.34447569761377</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -20150,6 +21244,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M365" t="n">
+        <v>10.65810411757894</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -20204,6 +21301,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M366" t="n">
+        <v>11.59684447314676</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -20258,6 +21358,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M367" t="n">
+        <v>12.34761331771029</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -20312,6 +21415,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M368" t="n">
+        <v>13.31967479857655</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -20366,6 +21472,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M369" t="n">
+        <v>13.13563023639482</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -20420,6 +21529,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M370" t="n">
+        <v>13.17383080984585</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -20474,6 +21586,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M371" t="n">
+        <v>13.62419108402338</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -20528,6 +21643,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M372" t="n">
+        <v>14.45123420858004</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -20582,6 +21700,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M373" t="n">
+        <v>14.14149059132945</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -20636,6 +21757,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M374" t="n">
+        <v>14.8785811931892</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -20687,8 +21811,11 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M375" t="n">
+        <v>15.24211099617367</v>
       </c>
     </row>
     <row r="376">
@@ -20744,6 +21871,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M376" t="n">
+        <v>15.50945007428031</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -20798,6 +21928,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M377" t="n">
+        <v>16.03867751608636</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -20852,6 +21985,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M378" t="n">
+        <v>16.80581621513632</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -20903,8 +22039,11 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M379" t="n">
+        <v>16.62815197215535</v>
       </c>
     </row>
     <row r="380">
@@ -20960,6 +22099,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M380" t="n">
+        <v>16.79717985723639</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -21014,6 +22156,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M381" t="n">
+        <v>15.99422383502839</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -21068,6 +22213,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M382" t="n">
+        <v>15.06472183658647</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -21122,6 +22270,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M383" t="n">
+        <v>15.73422115961739</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -21176,6 +22327,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M384" t="n">
+        <v>16.70088642089508</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -21230,6 +22384,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M385" t="n">
+        <v>17.24311544302983</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -21284,6 +22441,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M386" t="n">
+        <v>17.48775561525812</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -21338,6 +22498,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M387" t="n">
+        <v>18.20047428772407</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -21392,6 +22555,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M388" t="n">
+        <v>14.90552314266313</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -21446,6 +22612,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M389" t="n">
+        <v>14.80455106486461</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -21500,6 +22669,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M390" t="n">
+        <v>15.98154377405364</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -21554,6 +22726,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M391" t="n">
+        <v>18.03460054717373</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -21608,6 +22783,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M392" t="n">
+        <v>19.11812515227062</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -21662,6 +22840,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M393" t="n">
+        <v>19.29773747790254</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -21716,6 +22897,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M394" t="n">
+        <v>18.87246375899092</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -21770,6 +22954,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M395" t="n">
+        <v>17.80756339163614</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -21824,6 +23011,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M396" t="n">
+        <v>19.49743678244656</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -21878,6 +23068,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M397" t="n">
+        <v>19.92135965398791</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -21932,6 +23125,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M398" t="n">
+        <v>20.16773203310764</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -21986,6 +23182,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M399" t="n">
+        <v>20.56026777189445</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -22040,6 +23239,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M400" t="n">
+        <v>17.68164397927486</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -22094,6 +23296,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M401" t="n">
+        <v>17.82933140390453</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -22148,6 +23353,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M402" t="n">
+        <v>18.34312001694812</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -22202,6 +23410,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M403" t="n">
+        <v>19.05934029762463</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -22256,6 +23467,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M404" t="n">
+        <v>18.72849617178092</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -22310,6 +23524,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M405" t="n">
+        <v>19.67560768006297</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -22364,6 +23581,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M406" t="n">
+        <v>20.74625478667112</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -22418,6 +23638,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M407" t="n">
+        <v>19.46629923772387</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -22472,6 +23695,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M408" t="n">
+        <v>20.82013738750224</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -22523,8 +23749,11 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M409" t="n">
+        <v>22.63460350870275</v>
       </c>
     </row>
     <row r="410">
@@ -22580,6 +23809,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M410" t="n">
+        <v>22.27316115184302</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -22634,6 +23866,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M411" t="n">
+        <v>21.72471460348155</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -22688,6 +23923,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M412" t="n">
+        <v>22.17879670415218</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -22742,6 +23980,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M413" t="n">
+        <v>20.54161963230072</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -22796,6 +24037,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M414" t="n">
+        <v>20.09767180251422</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -22850,6 +24094,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M415" t="n">
+        <v>22.5484237075546</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -22904,6 +24151,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M416" t="n">
+        <v>23.54388398804999</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -22958,6 +24208,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M417" t="n">
+        <v>23.40732169628168</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -23012,6 +24265,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M418" t="n">
+        <v>24.60969848648753</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -23066,6 +24322,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M419" t="n">
+        <v>24.50920482658818</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -23120,6 +24379,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M420" t="n">
+        <v>25.01359394667842</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -23174,6 +24436,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M421" t="n">
+        <v>20.22559678925577</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -23228,6 +24493,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M422" t="n">
+        <v>21.47324111905987</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -23282,6 +24550,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M423" t="n">
+        <v>21.59317151694269</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -23336,6 +24607,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M424" t="n">
+        <v>21.33949114072059</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -23390,6 +24664,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M425" t="n">
+        <v>19.98875298189035</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -23444,6 +24721,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M426" t="n">
+        <v>20.63582787814601</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -23498,6 +24778,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M427" t="n">
+        <v>21.22568311533789</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -23552,6 +24835,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M428" t="n">
+        <v>22.36591073024503</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -23606,6 +24892,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M429" t="n">
+        <v>22.75021318850884</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -23660,6 +24949,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M430" t="n">
+        <v>23.7007350870339</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -23714,6 +25006,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M431" t="n">
+        <v>15.15336357478922</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -23768,6 +25063,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M432" t="n">
+        <v>14.37497084877109</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -23822,6 +25120,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M433" t="n">
+        <v>14.26582504567755</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -23876,6 +25177,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M434" t="n">
+        <v>27.31765310777272</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -23930,6 +25234,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M435" t="n">
+        <v>26.4790913113177</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -23984,6 +25291,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M436" t="n">
+        <v>25.19918001600323</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -24038,6 +25348,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M437" t="n">
+        <v>24.27647232902826</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -24092,6 +25405,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M438" t="n">
+        <v>23.55214622538677</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -24146,6 +25462,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M439" t="n">
+        <v>22.38288650681208</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -24200,6 +25519,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M440" t="n">
+        <v>24.63717525272506</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -24254,6 +25576,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M441" t="n">
+        <v>26.07088123125678</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -24308,6 +25633,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M442" t="n">
+        <v>25.86099808979446</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -24362,6 +25690,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M443" t="n">
+        <v>24.24032968110521</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -24416,6 +25747,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M444" t="n">
+        <v>25.79173110231573</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -24470,6 +25804,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M445" t="n">
+        <v>23.76364228577808</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -24524,6 +25861,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M446" t="n">
+        <v>21.67167290963591</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -24578,6 +25918,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M447" t="n">
+        <v>20.84835096206199</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -24632,6 +25975,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M448" t="n">
+        <v>22.4036804517035</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -24686,6 +26032,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M449" t="n">
+        <v>22.08088946675256</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -24740,6 +26089,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M450" t="n">
+        <v>23.01262682601776</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -24794,6 +26146,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M451" t="n">
+        <v>22.35787701405597</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -24848,6 +26203,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M452" t="n">
+        <v>23.60316653868261</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -24902,6 +26260,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M453" t="n">
+        <v>24.24849905619927</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -24956,6 +26317,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M454" t="n">
+        <v>25.25996832876736</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -25010,6 +26374,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M455" t="n">
+        <v>26.35628516364178</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -25064,6 +26431,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M456" t="n">
+        <v>25.99726734285841</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -25118,6 +26488,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M457" t="n">
+        <v>25.54515057567549</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -25172,6 +26545,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M458" t="n">
+        <v>24.52359202221216</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -25226,6 +26602,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M459" t="n">
+        <v>25.20653829526816</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -25280,6 +26659,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M460" t="n">
+        <v>26.54137020399072</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -25334,6 +26716,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M461" t="n">
+        <v>25.73446925329534</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -25388,6 +26773,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M462" t="n">
+        <v>27.53378591593449</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -25442,6 +26830,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M463" t="n">
+        <v>27.49105989535703</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -25496,6 +26887,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M464" t="n">
+        <v>26.69131318921048</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -25550,6 +26944,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M465" t="n">
+        <v>28.25705384641126</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -25604,6 +27001,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M466" t="n">
+        <v>26.88100433973998</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -25658,6 +27058,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M467" t="n">
+        <v>27.52692875641147</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -25712,6 +27115,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M468" t="n">
+        <v>29.01930085762386</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -25766,6 +27172,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M469" t="n">
+        <v>28.43815621225728</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -25820,6 +27229,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M470" t="n">
+        <v>27.57116405601606</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -25874,6 +27286,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M471" t="n">
+        <v>28.23307244523989</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -25928,6 +27343,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M472" t="n">
+        <v>29.02879392582883</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -25982,6 +27400,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M473" t="n">
+        <v>28.85281567221831</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -26036,6 +27457,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M474" t="n">
+        <v>27.58285234443794</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -26090,6 +27514,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M475" t="n">
+        <v>28.90393917495932</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -26144,6 +27571,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M476" t="n">
+        <v>27.07861543153613</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -26198,6 +27628,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M477" t="n">
+        <v>28.19452861257363</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -26252,6 +27685,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M478" t="n">
+        <v>27.98364976819385</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -26306,6 +27742,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M479" t="n">
+        <v>27.79739843637622</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -26360,6 +27799,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M480" t="n">
+        <v>26.69657495008432</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -26414,6 +27856,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M481" t="n">
+        <v>27.12844097352897</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -26468,6 +27913,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M482" t="n">
+        <v>27.62496293282661</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -26522,6 +27970,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M483" t="n">
+        <v>28.40951563199543</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -26576,6 +28027,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M484" t="n">
+        <v>29.60200046720222</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -26630,6 +28084,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M485" t="n">
+        <v>29.32174079254745</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -26684,6 +28141,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M486" t="n">
+        <v>29.21919473098327</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -26738,6 +28198,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M487" t="n">
+        <v>22.70274663794204</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -26792,6 +28255,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M488" t="n">
+        <v>21.61411845722087</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -26846,6 +28312,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M489" t="n">
+        <v>20.65210058001799</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -26900,6 +28369,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M490" t="n">
+        <v>19.66991609891725</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -26954,6 +28426,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M491" t="n">
+        <v>19.18754359109131</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -27008,6 +28483,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M492" t="n">
+        <v>18.47527504558874</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -27062,6 +28540,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M493" t="n">
+        <v>19.1490370120063</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -27116,6 +28597,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M494" t="n">
+        <v>20.58216409543132</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -27170,6 +28654,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M495" t="n">
+        <v>21.41663742093819</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -27224,6 +28711,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M496" t="n">
+        <v>19.73896109749209</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -27278,6 +28768,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M497" t="n">
+        <v>20.33986727556739</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -27332,6 +28825,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M498" t="n">
+        <v>18.74307327451768</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -27386,6 +28882,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M499" t="n">
+        <v>18.0451729919387</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -27440,6 +28939,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M500" t="n">
+        <v>16.88025154564969</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -27494,6 +28996,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M501" t="n">
+        <v>15.33160716810548</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -27548,6 +29053,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M502" t="n">
+        <v>14.04681645566696</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -27599,8 +29107,11 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M503" t="n">
+        <v>12.94162148721763</v>
       </c>
     </row>
     <row r="504">
@@ -27656,6 +29167,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M504" t="n">
+        <v>12.19466049975596</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -27710,6 +29224,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M505" t="n">
+        <v>15.10279867104585</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -27764,6 +29281,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M506" t="n">
+        <v>14.12678602127998</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -27818,6 +29338,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M507" t="n">
+        <v>18.89609767597569</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -27872,6 +29395,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M508" t="n">
+        <v>17.63065733578025</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -27926,6 +29452,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M509" t="n">
+        <v>16.80273722702186</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -27980,6 +29509,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M510" t="n">
+        <v>17.8337676504785</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -28034,6 +29566,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M511" t="n">
+        <v>18.43168653313325</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -28088,6 +29623,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M512" t="n">
+        <v>19.87303142026562</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -28142,6 +29680,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M513" t="n">
+        <v>21.62729873983257</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -28196,6 +29737,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M514" t="n">
+        <v>21.5920878011465</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -28250,6 +29794,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M515" t="n">
+        <v>21.31196714173102</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -28304,6 +29851,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M516" t="n">
+        <v>22.75223354852771</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -28358,6 +29908,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M517" t="n">
+        <v>19.77344361535773</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -28412,6 +29965,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M518" t="n">
+        <v>18.55100426245391</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -28466,6 +30022,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M519" t="n">
+        <v>19.75817382636285</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -28517,8 +30076,11 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M520" t="n">
+        <v>16.98608131209172</v>
       </c>
     </row>
     <row r="521">
@@ -28574,6 +30136,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M521" t="n">
+        <v>15.60920253121566</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -28628,6 +30193,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M522" t="n">
+        <v>15.62281640656301</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -28682,6 +30250,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M523" t="n">
+        <v>15.15044479865293</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -28736,6 +30307,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M524" t="n">
+        <v>14.30248321795185</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -28790,6 +30364,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M525" t="n">
+        <v>16.22037149749163</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -28844,6 +30421,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M526" t="n">
+        <v>13.15476152600231</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -28895,8 +30475,11 @@
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M527" t="n">
+        <v>14.19707349892405</v>
       </c>
     </row>
     <row r="528">
@@ -28952,6 +30535,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M528" t="n">
+        <v>13.23041876660034</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -29006,6 +30592,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M529" t="n">
+        <v>13.20228491924165</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -29060,6 +30649,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M530" t="n">
+        <v>14.21354417522962</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -29114,6 +30706,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M531" t="n">
+        <v>18.16298349517574</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -29168,6 +30763,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M532" t="n">
+        <v>18.17214234906806</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -29222,6 +30820,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M533" t="n">
+        <v>16.25945260157788</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -29276,6 +30877,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M534" t="n">
+        <v>14.99736266733509</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -29330,6 +30934,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M535" t="n">
+        <v>16.75154664194262</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -29384,6 +30991,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M536" t="n">
+        <v>18.55523548095441</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -29438,6 +31048,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M537" t="n">
+        <v>19.47852655319817</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -29492,6 +31105,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M538" t="n">
+        <v>20.77797550768199</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -29546,6 +31162,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M539" t="n">
+        <v>19.45681020218997</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -29600,6 +31219,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M540" t="n">
+        <v>21.01960238253128</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -29654,6 +31276,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M541" t="n">
+        <v>20.00072896435645</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -29708,6 +31333,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M542" t="n">
+        <v>21.18201447282427</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -29762,6 +31390,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M543" t="n">
+        <v>22.13987936606743</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -29813,8 +31444,11 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M544" t="n">
+        <v>20.96516447871406</v>
       </c>
     </row>
     <row r="545">
@@ -29870,6 +31504,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M545" t="n">
+        <v>19.38892334421156</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -29924,6 +31561,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M546" t="n">
+        <v>17.946118180755</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -29978,6 +31618,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M547" t="n">
+        <v>15.30990390077653</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -30032,6 +31675,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M548" t="n">
+        <v>15.50190437070627</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -30086,6 +31732,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M549" t="n">
+        <v>16.76171216113055</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -30140,6 +31789,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M550" t="n">
+        <v>16.33046208553353</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -30194,6 +31846,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M551" t="n">
+        <v>17.32983228268338</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -30248,6 +31903,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M552" t="n">
+        <v>17.77582744650288</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -30302,6 +31960,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M553" t="n">
+        <v>18.40717732113546</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -30356,6 +32017,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M554" t="n">
+        <v>19.76369886152917</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -30410,6 +32074,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M555" t="n">
+        <v>21.99410559539962</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -30464,6 +32131,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M556" t="n">
+        <v>23.29003516729832</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -30518,6 +32188,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M557" t="n">
+        <v>24.5721471233548</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -30572,6 +32245,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M558" t="n">
+        <v>25.37783982212434</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -30626,6 +32302,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M559" t="n">
+        <v>26.24701506710476</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -30680,6 +32359,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M560" t="n">
+        <v>23.87556862434443</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -30734,6 +32416,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M561" t="n">
+        <v>22.74456452155395</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -30788,6 +32473,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M562" t="n">
+        <v>21.529036309052</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -30842,6 +32530,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M563" t="n">
+        <v>24.69160594664057</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -30896,6 +32587,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M564" t="n">
+        <v>26.31402015582702</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -30950,6 +32644,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M565" t="n">
+        <v>26.9704065137121</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -31004,6 +32701,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M566" t="n">
+        <v>27.60751858024335</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -31058,6 +32758,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M567" t="n">
+        <v>28.22488495966029</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -31112,6 +32815,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M568" t="n">
+        <v>28.93093230745766</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -31163,8 +32869,11 @@
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M569" t="n">
+        <v>29.60153616436162</v>
       </c>
     </row>
     <row r="570">
@@ -31220,6 +32929,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M570" t="n">
+        <v>26.23239091919218</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -31274,6 +32986,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M571" t="n">
+        <v>28.11824875150821</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -31328,6 +33043,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M572" t="n">
+        <v>27.77358491554875</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -31382,6 +33100,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M573" t="n">
+        <v>26.40274845279639</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -31436,6 +33157,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M574" t="n">
+        <v>27.6114957325698</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -31490,6 +33214,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M575" t="n">
+        <v>27.74150434954606</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -31544,6 +33271,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M576" t="n">
+        <v>28.77637790538171</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -31598,6 +33328,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M577" t="n">
+        <v>29.87067121242781</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -31652,6 +33385,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M578" t="n">
+        <v>23.31458126933247</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -31706,6 +33442,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M579" t="n">
+        <v>24.1006177257377</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -31760,6 +33499,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M580" t="n">
+        <v>25.67234713481009</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -31814,6 +33556,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M581" t="n">
+        <v>25.26026471925418</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -31868,6 +33613,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M582" t="n">
+        <v>27.13831292690966</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -31922,6 +33670,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M583" t="n">
+        <v>27.63133813280393</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -31976,6 +33727,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M584" t="n">
+        <v>27.19840903890396</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -32030,6 +33784,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M585" t="n">
+        <v>28.58784617562913</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -32081,8 +33838,11 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M586" t="n">
+        <v>29.36536308198004</v>
       </c>
     </row>
     <row r="587">
@@ -32138,6 +33898,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M587" t="n">
+        <v>29.00834243243505</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -32192,6 +33955,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M588" t="n">
+        <v>23.8733081792532</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -32246,6 +34012,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M589" t="n">
+        <v>23.63293859994199</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -32300,6 +34069,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M590" t="n">
+        <v>24.76115319993564</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -32354,6 +34126,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M591" t="n">
+        <v>26.13911317620558</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -32408,6 +34183,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M592" t="n">
+        <v>25.85742628718192</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -32462,6 +34240,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M593" t="n">
+        <v>26.71358736174434</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -32516,6 +34297,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M594" t="n">
+        <v>27.33067779143624</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -32570,6 +34354,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M595" t="n">
+        <v>27.78106966199403</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -32624,6 +34411,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M596" t="n">
+        <v>28.78497372909468</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -32678,6 +34468,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M597" t="n">
+        <v>29.32249519521583</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -32732,6 +34525,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M598" t="n">
+        <v>29.88700663973717</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -32786,6 +34582,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M599" t="n">
+        <v>18.18104923542333</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -32840,6 +34639,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M600" t="n">
+        <v>18.00755280474161</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -32894,6 +34696,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M601" t="n">
+        <v>26.69651301024182</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -32948,6 +34753,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M602" t="n">
+        <v>29.15330456759743</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -33002,6 +34810,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M603" t="n">
+        <v>29.48733706139452</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -33056,6 +34867,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M604" t="n">
+        <v>10.33873644061414</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
@@ -33110,6 +34924,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M605" t="n">
+        <v>11.37774034258198</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
@@ -33164,6 +34981,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M606" t="n">
+        <v>12.28444146756251</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -33218,6 +35038,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M607" t="n">
+        <v>13.68119841241225</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
@@ -33272,6 +35095,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M608" t="n">
+        <v>14.81930520104909</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
@@ -33326,6 +35152,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M609" t="n">
+        <v>13.88798849000479</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -33380,6 +35209,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M610" t="n">
+        <v>15.06283281360119</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -33434,6 +35266,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M611" t="n">
+        <v>15.71043488035885</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
@@ -33488,6 +35323,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M612" t="n">
+        <v>17.07802274028767</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
@@ -33542,6 +35380,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M613" t="n">
+        <v>17.58122251633437</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
@@ -33596,6 +35437,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M614" t="n">
+        <v>16.03462064655877</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
@@ -33650,6 +35494,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M615" t="n">
+        <v>17.15605428608627</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -33704,6 +35551,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M616" t="n">
+        <v>18.14989384903351</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -33758,6 +35608,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M617" t="n">
+        <v>17.91876077825986</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
@@ -33812,6 +35665,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M618" t="n">
+        <v>19.01758191164772</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
@@ -33866,6 +35722,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M619" t="n">
+        <v>12.12179289643677</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
@@ -33920,6 +35779,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M620" t="n">
+        <v>13.16055483581041</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -33974,6 +35836,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M621" t="n">
+        <v>14.12268406769016</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
@@ -34028,6 +35893,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M622" t="n">
+        <v>15.36050352233645</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -34082,6 +35950,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M623" t="n">
+        <v>16.49765727765805</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
@@ -34136,6 +36007,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M624" t="n">
+        <v>17.11148383662082</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
@@ -34190,6 +36064,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M625" t="n">
+        <v>15.3023756608647</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
@@ -34244,6 +36121,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M626" t="n">
+        <v>14.12948167950005</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
@@ -34298,6 +36178,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M627" t="n">
+        <v>15.01125008560541</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -34352,6 +36235,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M628" t="n">
+        <v>16.70602809453224</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
@@ -34406,6 +36292,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M629" t="n">
+        <v>21.03493440340809</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
@@ -34460,6 +36349,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M630" t="n">
+        <v>20.08640998016456</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -34514,6 +36406,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M631" t="n">
+        <v>19.84131773107286</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
@@ -34568,6 +36463,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M632" t="n">
+        <v>18.62363095870833</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
@@ -34622,6 +36520,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M633" t="n">
+        <v>17.22612069993822</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
@@ -34676,6 +36577,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M634" t="n">
+        <v>17.47097361669164</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
@@ -34730,6 +36634,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M635" t="n">
+        <v>21.83638953153291</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
@@ -34784,6 +36691,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M636" t="n">
+        <v>23.47712803405805</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
@@ -34838,6 +36748,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M637" t="n">
+        <v>25.05358168275119</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
@@ -34892,6 +36805,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M638" t="n">
+        <v>24.41557216918926</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
@@ -34946,6 +36862,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M639" t="n">
+        <v>23.20516308770154</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
@@ -35000,6 +36919,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M640" t="n">
+        <v>22.16099840840135</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
@@ -35054,6 +36976,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M641" t="n">
+        <v>23.24364441527112</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
@@ -35108,6 +37033,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M642" t="n">
+        <v>24.25256082101308</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
@@ -35162,6 +37090,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M643" t="n">
+        <v>25.84852665883221</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
@@ -35216,6 +37147,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M644" t="n">
+        <v>26.38468992324439</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
@@ -35270,6 +37204,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M645" t="n">
+        <v>27.32272764752895</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
@@ -35324,6 +37261,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M646" t="n">
+        <v>28.37959205358009</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
@@ -35378,6 +37318,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M647" t="n">
+        <v>27.40742881311882</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
@@ -35432,6 +37375,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M648" t="n">
+        <v>25.55180914092352</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
@@ -35486,6 +37432,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M649" t="n">
+        <v>24.06709960684364</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
@@ -35540,6 +37489,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M650" t="n">
+        <v>26.4165512159143</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
@@ -35594,6 +37546,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M651" t="n">
+        <v>27.34720189912215</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
@@ -35648,6 +37603,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M652" t="n">
+        <v>27.80494975810744</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
@@ -35702,6 +37660,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M653" t="n">
+        <v>28.70541143315404</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
@@ -35756,6 +37717,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M654" t="n">
+        <v>29.13899469561552</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
@@ -35810,6 +37774,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M655" t="n">
+        <v>28.55838199346662</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
@@ -35864,6 +37831,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M656" t="n">
+        <v>20.80015475153833</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
@@ -35918,6 +37888,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M657" t="n">
+        <v>21.00481522552683</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
@@ -35972,6 +37945,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M658" t="n">
+        <v>21.87282154659418</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
@@ -36026,6 +38002,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M659" t="n">
+        <v>22.54339127517057</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
@@ -36080,6 +38059,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M660" t="n">
+        <v>21.81273738318633</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
@@ -36134,6 +38116,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M661" t="n">
+        <v>22.81029136303543</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
@@ -36188,6 +38173,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M662" t="n">
+        <v>23.65304854133108</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
@@ -36242,6 +38230,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M663" t="n">
+        <v>24.77176756517259</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
@@ -36296,6 +38287,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M664" t="n">
+        <v>25.13371462111383</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
@@ -36350,6 +38344,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M665" t="n">
+        <v>26.25297945024471</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
@@ -36404,6 +38401,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M666" t="n">
+        <v>27.33059895267842</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
@@ -36458,6 +38458,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M667" t="n">
+        <v>16.01416067091454</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
@@ -36512,6 +38515,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M668" t="n">
+        <v>18.4001954935042</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
@@ -36566,6 +38572,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M669" t="n">
+        <v>19.43633510323767</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
@@ -36620,6 +38629,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M670" t="n">
+        <v>19.34580070749417</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
@@ -36674,6 +38686,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M671" t="n">
+        <v>19.22062649503895</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
@@ -36728,6 +38743,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M672" t="n">
+        <v>21.28463906186204</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
@@ -36782,6 +38800,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M673" t="n">
+        <v>20.37559949191293</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
@@ -36836,6 +38857,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M674" t="n">
+        <v>19.53299913460629</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
@@ -36890,6 +38914,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M675" t="n">
+        <v>19.00162879784169</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
@@ -36944,6 +38971,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M676" t="n">
+        <v>18.85850854971277</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
@@ -36998,6 +39028,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M677" t="n">
+        <v>19.23532349796718</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
@@ -37052,6 +39085,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M678" t="n">
+        <v>20.26148356341927</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
@@ -37106,6 +39142,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M679" t="n">
+        <v>21.86764612005892</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
@@ -37160,6 +39199,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M680" t="n">
+        <v>21.36063944654274</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
@@ -37214,6 +39256,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M681" t="n">
+        <v>22.32499237687836</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
@@ -37268,6 +39313,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M682" t="n">
+        <v>22.76619055094411</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
@@ -37322,6 +39370,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M683" t="n">
+        <v>23.61839253164683</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
@@ -37376,6 +39427,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M684" t="n">
+        <v>24.40495079467034</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
@@ -37430,6 +39484,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M685" t="n">
+        <v>24.95511261727681</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
@@ -37481,8 +39538,11 @@
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M686" t="n">
+        <v>24.90640135892516</v>
       </c>
     </row>
     <row r="687">
@@ -37538,6 +39598,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M687" t="n">
+        <v>23.78114844733018</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
@@ -37592,6 +39655,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M688" t="n">
+        <v>26.43874092122555</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
@@ -37646,6 +39712,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M689" t="n">
+        <v>25.85234109428699</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
@@ -37700,6 +39769,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M690" t="n">
+        <v>27.05112365047288</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
@@ -37754,6 +39826,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M691" t="n">
+        <v>27.09844840561471</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
@@ -37808,6 +39883,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M692" t="n">
+        <v>21.49690658101582</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
@@ -37862,6 +39940,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M693" t="n">
+        <v>20.9654518707631</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
@@ -37916,6 +39997,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M694" t="n">
+        <v>20.93169880441913</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
@@ -37970,6 +40054,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M695" t="n">
+        <v>20.52973547615364</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
@@ -38024,6 +40111,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M696" t="n">
+        <v>21.35577706730765</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
@@ -38078,6 +40168,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M697" t="n">
+        <v>21.90767937897276</v>
+      </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
@@ -38132,6 +40225,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M698" t="n">
+        <v>22.26006524976319</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
@@ -38186,6 +40282,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M699" t="n">
+        <v>22.66714804888778</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
@@ -38240,6 +40339,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M700" t="n">
+        <v>23.28179477119104</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
@@ -38294,6 +40396,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M701" t="n">
+        <v>22.38619378637175</v>
+      </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
@@ -38348,6 +40453,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M702" t="n">
+        <v>23.10858009458061</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
@@ -38402,6 +40510,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M703" t="n">
+        <v>23.76078589854146</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
@@ -38456,6 +40567,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M704" t="n">
+        <v>24.44005831214235</v>
+      </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
@@ -38510,6 +40624,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M705" t="n">
+        <v>23.79362594262609</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
@@ -38564,6 +40681,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M706" t="n">
+        <v>24.15142069665257</v>
+      </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
@@ -38618,6 +40738,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M707" t="n">
+        <v>25.27304181633022</v>
+      </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
@@ -38672,6 +40795,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M708" t="n">
+        <v>25.09077876773881</v>
+      </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
@@ -38726,6 +40852,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M709" t="n">
+        <v>26.83213080613855</v>
+      </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
@@ -38780,6 +40909,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M710" t="n">
+        <v>26.49839779937793</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
@@ -38834,6 +40966,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M711" t="n">
+        <v>27.27969279496471</v>
+      </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
@@ -38888,6 +41023,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M712" t="n">
+        <v>27.58743980976674</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
@@ -38942,6 +41080,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M713" t="n">
+        <v>29.00966815758732</v>
+      </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
@@ -38996,6 +41137,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M714" t="n">
+        <v>29.35991911022736</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
@@ -39050,6 +41194,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M715" t="n">
+        <v>28.43604049961342</v>
+      </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
@@ -39104,6 +41251,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M716" t="n">
+        <v>28.4504162847701</v>
+      </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
@@ -39158,6 +41308,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M717" t="n">
+        <v>23.44729603260242</v>
+      </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
@@ -39212,6 +41365,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M718" t="n">
+        <v>24.2264713029483</v>
+      </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
@@ -39266,6 +41422,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M719" t="n">
+        <v>25.1207261092858</v>
+      </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
@@ -39320,6 +41479,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M720" t="n">
+        <v>26.01449937935894</v>
+      </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
@@ -39374,6 +41536,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M721" t="n">
+        <v>27.65660931104061</v>
+      </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
@@ -39428,6 +41593,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M722" t="n">
+        <v>27.35105987406416</v>
+      </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
@@ -39482,6 +41650,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M723" t="n">
+        <v>28.80234159377267</v>
+      </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
@@ -39536,6 +41707,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M724" t="n">
+        <v>28.48217011870232</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
@@ -39590,6 +41764,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M725" t="n">
+        <v>28.69424302792714</v>
+      </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
@@ -39644,6 +41821,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M726" t="n">
+        <v>29.95218057765563</v>
+      </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
@@ -39695,8 +41875,11 @@
       </c>
       <c r="L727" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M727" t="n">
+        <v>26.82100137915953</v>
       </c>
     </row>
     <row r="728">
@@ -39752,6 +41935,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M728" t="n">
+        <v>28.48819945328194</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
@@ -39806,6 +41992,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M729" t="n">
+        <v>29.51761008088921</v>
+      </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
@@ -39860,6 +42049,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M730" t="n">
+        <v>29.539345332717</v>
+      </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
@@ -39914,6 +42106,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M731" t="n">
+        <v>29.93541516366932</v>
+      </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
@@ -39968,6 +42163,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M732" t="n">
+        <v>25.81639217862862</v>
+      </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
@@ -40022,6 +42220,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M733" t="n">
+        <v>25.42615833816344</v>
+      </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
@@ -40073,8 +42274,11 @@
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M734" t="n">
+        <v>24.43222477760198</v>
       </c>
     </row>
     <row r="735">
@@ -40130,6 +42334,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M735" t="n">
+        <v>24.26057360106935</v>
+      </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
@@ -40184,6 +42391,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M736" t="n">
+        <v>26.01503312810066</v>
+      </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
@@ -40238,6 +42448,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M737" t="n">
+        <v>26.65654244336257</v>
+      </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
@@ -40292,6 +42505,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M738" t="n">
+        <v>27.01868382622965</v>
+      </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
@@ -40346,6 +42562,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M739" t="n">
+        <v>28.1204079964522</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
@@ -40400,6 +42619,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M740" t="n">
+        <v>27.56522741206639</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
@@ -40454,6 +42676,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M741" t="n">
+        <v>27.91685662885259</v>
+      </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
@@ -40508,6 +42733,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M742" t="n">
+        <v>28.75253071562311</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
@@ -40562,6 +42790,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M743" t="n">
+        <v>27.94767791159336</v>
+      </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
@@ -40616,6 +42847,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M744" t="n">
+        <v>29.1804693599415</v>
+      </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
@@ -40670,6 +42904,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M745" t="n">
+        <v>29.21313261273347</v>
+      </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
@@ -40724,6 +42961,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M746" t="n">
+        <v>28.45634714026793</v>
+      </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
@@ -40778,6 +43018,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M747" t="n">
+        <v>29.38957993779115</v>
+      </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
@@ -40832,6 +43075,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M748" t="n">
+        <v>28.93840209497868</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
@@ -40886,6 +43132,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M749" t="n">
+        <v>28.58401096356994</v>
+      </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
@@ -40937,8 +43186,11 @@
       </c>
       <c r="L750" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M750" t="n">
+        <v>25.16853277777999</v>
       </c>
     </row>
     <row r="751">
@@ -40994,6 +43246,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M751" t="n">
+        <v>25.73383033610126</v>
+      </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
@@ -41048,6 +43303,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M752" t="n">
+        <v>25.94313328787386</v>
+      </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
@@ -41099,8 +43357,11 @@
       </c>
       <c r="L753" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M753" t="n">
+        <v>26.85095707765517</v>
       </c>
     </row>
     <row r="754">
@@ -41156,6 +43417,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M754" t="n">
+        <v>26.20287397328066</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
@@ -41210,6 +43474,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M755" t="n">
+        <v>26.80819290455661</v>
+      </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
@@ -41264,6 +43531,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M756" t="n">
+        <v>27.86309854821049</v>
+      </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
@@ -41318,6 +43588,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M757" t="n">
+        <v>28.08172009073724</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
@@ -41372,6 +43645,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M758" t="n">
+        <v>29.13044084097238</v>
+      </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
@@ -41426,6 +43702,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M759" t="n">
+        <v>29.18106069056681</v>
+      </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
@@ -41480,6 +43759,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M760" t="n">
+        <v>29.85121909536918</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
@@ -41534,6 +43816,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M761" t="n">
+        <v>28.26247783872231</v>
+      </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
@@ -41588,6 +43873,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M762" t="n">
+        <v>29.12115329604761</v>
+      </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
@@ -41642,6 +43930,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M763" t="n">
+        <v>29.52616952157158</v>
+      </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
@@ -41696,6 +43987,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M764" t="n">
+        <v>0.8966241719900672</v>
+      </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
@@ -41750,6 +44044,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M765" t="n">
+        <v>18.16298039390378</v>
+      </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
@@ -41804,6 +44101,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M766" t="n">
+        <v>28.57945386119281</v>
+      </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
@@ -41858,6 +44158,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M767" t="n">
+        <v>24.89752443232687</v>
+      </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
@@ -41911,6 +44214,9 @@
         <is>
           <t>Visited</t>
         </is>
+      </c>
+      <c r="M768" t="n">
+        <v>20.37848590451426</v>
       </c>
     </row>
   </sheetData>
